--- a/biology/Zoologie/Brahméide_d'Hartig/Brahméide_d'Hartig.xlsx
+++ b/biology/Zoologie/Brahméide_d'Hartig/Brahméide_d'Hartig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brahm%C3%A9ide_d%27Hartig</t>
+          <t>Brahméide_d'Hartig</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brahmaea europaea
 La Brahméide d’Hartig (Brahmaea europaea ou Acanthobrahmaea europaea) est une espèce de lépidoptères de la famille des Brahmaeidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brahm%C3%A9ide_d%27Hartig</t>
+          <t>Brahméide_d'Hartig</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Description de l'imago</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle a une envergure de 7 à 8 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle a une envergure de 7 à 8 cm.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brahm%C3%A9ide_d%27Hartig</t>
+          <t>Brahméide_d'Hartig</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est univoltine, et les adultes volent pendant une courte période entre fin mars et début mai[2].
-Les plantes-hôtes larvaires dans la nature sont Fraxinus angustifolia et Phillyrea latifolia[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est univoltine, et les adultes volent pendant une courte période entre fin mars et début mai.
+Les plantes-hôtes larvaires dans la nature sont Fraxinus angustifolia et Phillyrea latifolia.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brahm%C3%A9ide_d%27Hartig</t>
+          <t>Brahméide_d'Hartig</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Distribution et biotopes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Brahméide d’Hartig est endémique d'une petite région du Sud de l'Italie[3],[2].
-Ses habitats sont des forêts de feuillus, à des altitudes comprises entre 200 et 800 m[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Brahméide d’Hartig est endémique d'une petite région du Sud de l'Italie,.
+Ses habitats sont des forêts de feuillus, à des altitudes comprises entre 200 et 800 m.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brahm%C3%A9ide_d%27Hartig</t>
+          <t>Brahméide_d'Hartig</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +626,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Brahmaea europaea a été découverte et décrite en 1963 par l'entomologiste italien Friedrich Hartig, devenant la première et seule représentante européenne du genre Brahmaea, lequel est principalement originaire d'Extrême-Orient[2].
-Certains auteurs préfèrent placer Brahmaea europaea dans un genre distinct appelé Acanthobrahmaea Sauter, 1967, mais celui-ci tend désormais à être considéré comme un sous-genre ou un synonyme de Brahmaea[2],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Brahmaea europaea a été découverte et décrite en 1963 par l'entomologiste italien Friedrich Hartig, devenant la première et seule représentante européenne du genre Brahmaea, lequel est principalement originaire d'Extrême-Orient.
+Certains auteurs préfèrent placer Brahmaea europaea dans un genre distinct appelé Acanthobrahmaea Sauter, 1967, mais celui-ci tend désormais à être considéré comme un sous-genre ou un synonyme de Brahmaea,.
 </t>
         </is>
       </c>
